--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-2.xlsx_with_dialog_acts.xlsx
@@ -780,12 +780,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2799,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4282,12 +4282,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5534,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5572,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7154,12 +7154,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7826,12 +7826,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7978,12 +7978,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9384,12 +9384,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9843,12 +9843,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10485,12 +10485,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11184,12 +11184,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11932,12 +11932,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12016,12 +12016,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12570,12 +12570,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13017,12 +13017,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
